--- a/utils/todo/TodoList.xlsx
+++ b/utils/todo/TodoList.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ismael\Documents\GitHub\DaybydayCRM\utils\todo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ismael\Documents\GitHub\Evaluation-CRM-Laravel\utils\todo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6558F0-0E80-4421-9625-3A5C2D9DEE0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B779D82-3F5F-4785-9029-AAA31E9EC67C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11111" xr2:uid="{69CAAF71-2D90-4999-835F-2F6C7D11FD5D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="44">
   <si>
     <t>Categorie</t>
   </si>
@@ -186,9 +186,6 @@
     <t>Test de la section absence</t>
   </si>
   <si>
-    <t>Correction</t>
-  </si>
-  <si>
     <t>Modelisation</t>
   </si>
   <si>
@@ -198,13 +195,28 @@
     <t>Base de donnee</t>
   </si>
   <si>
-    <t xml:space="preserve">Correction </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corriger le probleme de liaison avec dropbox </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corriger le probleme de liaison avec drive </t>
+    <t>Reinitialisation</t>
+  </si>
+  <si>
+    <t>Configuration Middleware pour l'autorisation de reinitialisation</t>
+  </si>
+  <si>
+    <t>Configuration</t>
+  </si>
+  <si>
+    <t>Metier</t>
+  </si>
+  <si>
+    <t>Creation fonctionnalite de reinitialisation</t>
+  </si>
+  <si>
+    <t>Configuration route pour la reinitialisation</t>
+  </si>
+  <si>
+    <t>Ajout du menu reinitialisation avec contrôle du role qui peut l'effectuer</t>
+  </si>
+  <si>
+    <t>Affichage</t>
   </si>
 </sst>
 </file>
@@ -638,17 +650,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAA306E2-2E54-4FF7-B5D6-AD01021261D4}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="19.296875" customWidth="1"/>
     <col min="2" max="2" width="41.09765625" customWidth="1"/>
-    <col min="3" max="3" width="16.09765625" customWidth="1"/>
+    <col min="3" max="3" width="18.3984375" customWidth="1"/>
     <col min="4" max="4" width="17.8984375" customWidth="1"/>
     <col min="5" max="5" width="18.296875" customWidth="1"/>
     <col min="6" max="6" width="17.59765625" customWidth="1"/>
@@ -1003,44 +1015,72 @@
     </row>
     <row r="25" spans="1:4" ht="22.05" customHeight="1">
       <c r="A25" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="C25" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="D25" s="5">
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" ht="32.799999999999997" customHeight="1">
       <c r="A26" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="C26" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="D26" s="5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="23.65" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B27" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="D27" s="5">
-        <v>30</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="30.1" customHeight="1">
+      <c r="A28" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="27.95">
+      <c r="A29" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="5">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/utils/todo/TodoList.xlsx
+++ b/utils/todo/TodoList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ismael\Documents\GitHub\Evaluation-CRM-Laravel\utils\todo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B779D82-3F5F-4785-9029-AAA31E9EC67C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13756F3D-7BC9-405D-B3FA-0ADDD1BC5445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11111" xr2:uid="{69CAAF71-2D90-4999-835F-2F6C7D11FD5D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="70">
   <si>
     <t>Categorie</t>
   </si>
@@ -189,9 +189,6 @@
     <t>Modelisation</t>
   </si>
   <si>
-    <t>concevoir le mcd du projet</t>
-  </si>
-  <si>
     <t>Base de donnee</t>
   </si>
   <si>
@@ -217,6 +214,87 @@
   </si>
   <si>
     <t>Affichage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reflexion </t>
+  </si>
+  <si>
+    <t>Choix des tables a importer</t>
+  </si>
+  <si>
+    <t>Choix</t>
+  </si>
+  <si>
+    <t>concevoir le mcd du projet et comprendre les base de donnees</t>
+  </si>
+  <si>
+    <t>Import</t>
+  </si>
+  <si>
+    <t>Fonction import Clients</t>
+  </si>
+  <si>
+    <t>Fonction import Projets</t>
+  </si>
+  <si>
+    <t>Fonction import offers</t>
+  </si>
+  <si>
+    <t>Fonction import invoices</t>
+  </si>
+  <si>
+    <t>Fonction import payements</t>
+  </si>
+  <si>
+    <t>Fonction import appointments</t>
+  </si>
+  <si>
+    <t>Fonction import invoice_lines</t>
+  </si>
+  <si>
+    <t>Fonction import contacts</t>
+  </si>
+  <si>
+    <t>Fonction import absences</t>
+  </si>
+  <si>
+    <t>Fonction import projects</t>
+  </si>
+  <si>
+    <t>Fonction import tasks</t>
+  </si>
+  <si>
+    <t>Fonction import mails</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Import </t>
+  </si>
+  <si>
+    <t>Fonction import comments</t>
+  </si>
+  <si>
+    <t>Fonction import leads</t>
+  </si>
+  <si>
+    <t>Ajout de menu pour l'imoprtation de donnees avec gestion des roles qui peuvent importer</t>
+  </si>
+  <si>
+    <t>Creation de middleware pour l'acces a l'importation</t>
+  </si>
+  <si>
+    <t>Creation route pour chaque fonction du controllers</t>
+  </si>
+  <si>
+    <t>Fonction import csv pour les donnee</t>
+  </si>
+  <si>
+    <t>Integration des fonctionnalite a l'application</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>Creation de page pour les formulaire d'import</t>
   </si>
 </sst>
 </file>
@@ -650,13 +728,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAA306E2-2E54-4FF7-B5D6-AD01021261D4}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="33.85" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="19.296875" customWidth="1"/>
     <col min="2" max="2" width="41.09765625" customWidth="1"/>
@@ -668,7 +746,7 @@
     <col min="8" max="8" width="28.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="22.05" customHeight="1" thickBot="1">
+    <row r="1" spans="1:7" ht="33.85" customHeight="1" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -691,7 +769,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="23.1" customHeight="1">
+    <row r="2" spans="1:7" ht="33.85" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -705,7 +783,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="36.549999999999997" customHeight="1">
+    <row r="3" spans="1:7" ht="33.85" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -719,7 +797,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="23.65" customHeight="1">
+    <row r="4" spans="1:7" ht="33.85" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -733,7 +811,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="28.5" customHeight="1">
+    <row r="5" spans="1:7" ht="33.85" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
@@ -747,7 +825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="22.05" customHeight="1">
+    <row r="6" spans="1:7" ht="33.85" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
@@ -761,7 +839,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="24.2" customHeight="1">
+    <row r="7" spans="1:7" ht="33.85" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -775,7 +853,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="20.95" customHeight="1">
+    <row r="8" spans="1:7" ht="33.85" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
@@ -789,7 +867,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="25.8" customHeight="1">
+    <row r="9" spans="1:7" ht="33.85" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -803,7 +881,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="25.8" customHeight="1">
+    <row r="10" spans="1:7" ht="33.85" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>7</v>
       </c>
@@ -817,7 +895,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="21.5" customHeight="1">
+    <row r="11" spans="1:7" ht="33.85" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>7</v>
       </c>
@@ -831,7 +909,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="22.6" customHeight="1">
+    <row r="12" spans="1:7" ht="33.85" customHeight="1">
       <c r="A12" s="5" t="s">
         <v>7</v>
       </c>
@@ -845,7 +923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="29.05" customHeight="1">
+    <row r="13" spans="1:7" ht="33.85" customHeight="1">
       <c r="A13" s="5" t="s">
         <v>7</v>
       </c>
@@ -859,40 +937,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="25.8" customHeight="1">
+    <row r="14" spans="1:7" ht="33.85" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D14" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="23.1" customHeight="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="33.85" customHeight="1">
       <c r="A15" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="24.75" customHeight="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="33.85" customHeight="1">
       <c r="A16" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>19</v>
@@ -901,12 +979,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="23.1" customHeight="1">
+    <row r="17" spans="1:4" ht="33.85" customHeight="1">
       <c r="A17" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>19</v>
@@ -915,12 +993,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="32.25" customHeight="1">
+    <row r="18" spans="1:4" ht="33.85" customHeight="1">
       <c r="A18" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>19</v>
@@ -929,54 +1007,54 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="30.65" customHeight="1">
+    <row r="19" spans="1:4" ht="33.85" customHeight="1">
       <c r="A19" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D19" s="5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="29.55" customHeight="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="33.85" customHeight="1">
       <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D20" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="33.85" customHeight="1">
       <c r="A21" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D21" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="27.95">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="33.85" customHeight="1">
       <c r="A22" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>19</v>
@@ -985,12 +1063,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="23.1" customHeight="1">
+    <row r="23" spans="1:4" ht="33.85" customHeight="1">
       <c r="A23" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>19</v>
@@ -1004,83 +1082,391 @@
         <v>18</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="22.05" customHeight="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="33.85" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="33.85" customHeight="1">
+      <c r="A26" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="5">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="32.799999999999997" customHeight="1">
-      <c r="A26" s="5" t="s">
+      <c r="B26" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="C26" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="D26" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="23.65" customHeight="1">
+    <row r="27" spans="1:4" ht="33.85" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D27" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="30.1" customHeight="1">
+    <row r="28" spans="1:4" ht="33.85" customHeight="1">
       <c r="A28" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D28" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="27.95">
+    <row r="29" spans="1:4" ht="33.85" customHeight="1">
       <c r="A29" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B29" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="D29" s="5">
         <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="33.85" customHeight="1">
+      <c r="A30" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="33.85" customHeight="1">
+      <c r="A31" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="33.85" customHeight="1">
+      <c r="A32" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="33.85" customHeight="1">
+      <c r="A33" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="33.85" customHeight="1">
+      <c r="A34" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="33.85" customHeight="1">
+      <c r="A35" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="33.85" customHeight="1">
+      <c r="A36" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="33.85" customHeight="1">
+      <c r="A37" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="33.85" customHeight="1">
+      <c r="A38" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="33.85" customHeight="1">
+      <c r="A39" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="33.85" customHeight="1">
+      <c r="A40" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D40" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="33.85" customHeight="1">
+      <c r="A41" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D41" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="33.85" customHeight="1">
+      <c r="A42" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D42" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="33.85" customHeight="1">
+      <c r="A43" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D43" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="33.85" customHeight="1">
+      <c r="A44" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D44" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="33.85" customHeight="1">
+      <c r="A45" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D45" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="33.85" customHeight="1">
+      <c r="A46" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D46" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="33.85" customHeight="1">
+      <c r="A47" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D47" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="33.85" customHeight="1">
+      <c r="A48" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D48" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="33.85" customHeight="1">
+      <c r="A49" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D49" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="33.85" customHeight="1">
+      <c r="A50" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D50" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="33.85" customHeight="1">
+      <c r="A51" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" s="5">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/utils/todo/TodoList.xlsx
+++ b/utils/todo/TodoList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ismael\Documents\GitHub\Evaluation-CRM-Laravel\utils\todo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13756F3D-7BC9-405D-B3FA-0ADDD1BC5445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898351EF-91A7-466C-BA80-5553DC33C4E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11111" xr2:uid="{69CAAF71-2D90-4999-835F-2F6C7D11FD5D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="71">
   <si>
     <t>Categorie</t>
   </si>
@@ -295,6 +295,9 @@
   </si>
   <si>
     <t>Creation de page pour les formulaire d'import</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creation de la page validation </t>
   </si>
 </sst>
 </file>
@@ -728,10 +731,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAA306E2-2E54-4FF7-B5D6-AD01021261D4}">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="33.85" customHeight="1"/>
@@ -1166,41 +1169,41 @@
         <v>35</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="D30" s="5">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="33.85" customHeight="1">
       <c r="A31" s="5" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="D31" s="5">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="33.85" customHeight="1">
       <c r="A32" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D32" s="5">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="33.85" customHeight="1">
@@ -1208,7 +1211,7 @@
         <v>47</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>38</v>
@@ -1222,7 +1225,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>38</v>
@@ -1236,7 +1239,7 @@
         <v>47</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>38</v>
@@ -1250,7 +1253,7 @@
         <v>47</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>38</v>
@@ -1264,7 +1267,7 @@
         <v>47</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>38</v>
@@ -1278,7 +1281,7 @@
         <v>47</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>38</v>
@@ -1292,7 +1295,7 @@
         <v>47</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>38</v>
@@ -1306,7 +1309,7 @@
         <v>47</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>38</v>
@@ -1320,7 +1323,7 @@
         <v>47</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>38</v>
@@ -1334,7 +1337,7 @@
         <v>47</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>38</v>
@@ -1348,7 +1351,7 @@
         <v>47</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>38</v>
@@ -1359,10 +1362,10 @@
     </row>
     <row r="44" spans="1:4" ht="33.85" customHeight="1">
       <c r="A44" s="5" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>38</v>
@@ -1376,7 +1379,7 @@
         <v>60</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>38</v>
@@ -1387,16 +1390,16 @@
     </row>
     <row r="46" spans="1:4" ht="33.85" customHeight="1">
       <c r="A46" s="5" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D46" s="5">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="33.85" customHeight="1">
@@ -1404,13 +1407,13 @@
         <v>47</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D47" s="5">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="33.85" customHeight="1">
@@ -1418,7 +1421,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>42</v>
@@ -1432,13 +1435,13 @@
         <v>47</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D49" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="33.85" customHeight="1">
@@ -1446,10 +1449,10 @@
         <v>47</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D50" s="5">
         <v>12</v>
@@ -1460,12 +1463,26 @@
         <v>47</v>
       </c>
       <c r="B51" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D51" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="33.85" customHeight="1">
+      <c r="A52" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B52" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C52" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D51" s="5">
+      <c r="D52" s="5">
         <v>11</v>
       </c>
     </row>
